--- a/src/assets/zxsj_mb/sjzxtb_k09_jsjbxx.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k09_jsjbxx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>年度</t>
   </si>
@@ -55,46 +55,10 @@
     <t>所在单位</t>
   </si>
   <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>xm</t>
-  </si>
-  <si>
-    <t>zgh</t>
-  </si>
-  <si>
-    <t>birdate</t>
-  </si>
-  <si>
-    <t>xb</t>
-  </si>
-  <si>
-    <t>byzy</t>
-  </si>
-  <si>
-    <t>rjxk</t>
-  </si>
-  <si>
-    <t>rjkczmc</t>
-  </si>
-  <si>
-    <t>zyjszw</t>
-  </si>
-  <si>
-    <t>xl</t>
-  </si>
-  <si>
-    <t>xw</t>
-  </si>
-  <si>
-    <t>xz</t>
-  </si>
-  <si>
-    <t>szdw</t>
-  </si>
-  <si>
-    <t>康银功</t>
+    <t>分校代码</t>
+  </si>
+  <si>
+    <t>康**</t>
   </si>
   <si>
     <t>F20160537</t>
@@ -127,10 +91,10 @@
     <t>兼职教师</t>
   </si>
   <si>
-    <t>奉贤区发改委</t>
-  </si>
-  <si>
-    <t>徐金秀</t>
+    <t>上海电子工业学校</t>
+  </si>
+  <si>
+    <t>徐**</t>
   </si>
   <si>
     <t>F20151180</t>
@@ -160,13 +124,7 @@
     <t>专职教师</t>
   </si>
   <si>
-    <t>上海开放大学-奉贤分校</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>李云庆</t>
+    <t>李**</t>
   </si>
   <si>
     <t>F20150074</t>
@@ -184,10 +142,7 @@
     <t>讲师（高校）</t>
   </si>
   <si>
-    <t>上海电子工业学校</t>
-  </si>
-  <si>
-    <t>梁益智</t>
+    <t>梁**</t>
   </si>
   <si>
     <t>F20151074</t>
@@ -202,7 +157,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>陶冶</t>
+    <t>陶**</t>
   </si>
   <si>
     <t>F20151092</t>
@@ -220,7 +175,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>田亚男</t>
+    <t>田**</t>
   </si>
   <si>
     <t>F20151096</t>
@@ -237,9 +192,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -274,29 +229,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,74 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -401,6 +341,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -426,187 +381,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,15 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -662,8 +608,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,36 +624,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -728,7 +644,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,19 +707,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,112 +728,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,13 +1172,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="5.41666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.91666666666667" customWidth="1"/>
@@ -1240,7 +1195,7 @@
     <col min="13" max="13" width="21.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:13">
+    <row r="1" ht="25" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,45 +1235,48 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1345,22 +1303,22 @@
         <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:13">
@@ -1368,40 +1326,40 @@
         <v>2018</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:13">
@@ -1409,40 +1367,40 @@
         <v>2018</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:13">
@@ -1450,40 +1408,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:13">
@@ -1491,122 +1449,40 @@
         <v>2018</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:13">
-      <c r="A8" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:13">
-      <c r="A9" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/zxsj_mb/sjzxtb_k09_jsjbxx.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k09_jsjbxx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>年度</t>
   </si>
@@ -55,9 +55,6 @@
     <t>所在单位</t>
   </si>
   <si>
-    <t>分校代码</t>
-  </si>
-  <si>
     <t>康**</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>630管理学</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>中级（经济师）</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>汉语言文学</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>陶**</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>0303社会学</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>田**</t>
   </si>
   <si>
@@ -182,9 +170,6 @@
   </si>
   <si>
     <t>19811108</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
@@ -192,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -228,6 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -235,13 +221,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -249,40 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,31 +274,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,13 +311,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -356,17 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +575,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -608,33 +604,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -643,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +643,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,137 +692,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,6 +836,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,30 +1160,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.41666666666667" customWidth="1"/>
-    <col min="2" max="2" width="6.91666666666667" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="10.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="10.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="4.25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="6" max="6" width="14.1666666666667" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.4166666666667" customWidth="1"/>
     <col min="9" max="9" width="16.8333333333333" customWidth="1"/>
     <col min="10" max="10" width="6.91666666666667" customWidth="1"/>
-    <col min="11" max="11" width="5.08333333333333" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="6.41666666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="21.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:14">
+    <row r="1" ht="25" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,9 +1222,6 @@
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:13">
@@ -1244,40 +1229,40 @@
         <v>2018</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:13">
@@ -1285,40 +1270,40 @@
         <v>2018</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:13">
@@ -1326,40 +1311,40 @@
         <v>2018</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:13">
@@ -1367,40 +1352,40 @@
         <v>2018</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:13">
@@ -1408,40 +1393,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>52</v>
+      <c r="H6" s="5">
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="M6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:13">
@@ -1449,40 +1434,40 @@
         <v>2018</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/zxsj_mb/sjzxtb_k09_jsjbxx.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k09_jsjbxx.xlsx
@@ -82,7 +82,7 @@
     <t>博士</t>
   </si>
   <si>
-    <t>兼职教师</t>
+    <t>兼职</t>
   </si>
   <si>
     <t>上海电子工业学校</t>
@@ -115,7 +115,7 @@
     <t>硕士</t>
   </si>
   <si>
-    <t>专职教师</t>
+    <t>专职</t>
   </si>
   <si>
     <t>李**</t>
@@ -177,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -213,6 +213,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +266,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -272,90 +356,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -366,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +586,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -605,16 +653,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,45 +672,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1163,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
